--- a/outputs-r202/g__Olsenella.xlsx
+++ b/outputs-r202/g__Olsenella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -569,6 +574,11 @@
           <t>s__Olsenella umbonata</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>s__Olsenella umbonata</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -623,6 +633,11 @@
           <t>s__Olsenella umbonata</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>s__Olsenella umbonata</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -677,6 +692,11 @@
           <t>s__Olsenella umbonata</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>s__Olsenella umbonata</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -731,6 +751,11 @@
           <t>s__Olsenella sp900313175</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>s__Olsenella sp900313175</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -785,6 +810,11 @@
           <t>s__Olsenella umbonata</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>s__Olsenella umbonata</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -839,6 +869,11 @@
           <t>s__Olsenella umbonata</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>s__Olsenella umbonata</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -893,6 +928,11 @@
           <t>s__Olsenella umbonata</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>s__Olsenella umbonata</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -945,6 +985,11 @@
       <c r="P9" t="inlineStr">
         <is>
           <t>s__Olsenella urininfantis</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>s__Olsenella urininfantis(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/g__Olsenella.xlsx
+++ b/outputs-r202/g__Olsenella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,65 +934,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>hRUG891.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.07285687970169917</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07285687970169917</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.07285687970169917</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.07285687970169924</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.07285687970218502</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.07285687970169917</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.07285687970169909</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.07285687970169917</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.07538916491092247</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.07285687970169914</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.07285687970169902</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.07285687970169914</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.1231851583699009</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.1231851583699009</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>s__Olsenella urininfantis</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>s__Olsenella urininfantis(reject)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
